--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1357,185 +1357,185 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -8557,57 +8557,57 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -14594,106 +14594,106 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D273" t="n">
+      <c r="D273" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D274" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" t="inlineStr">
+      <c r="D274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/99/word_level_predictions_99.xlsx
@@ -1357,185 +1357,185 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" s="2" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G46" s="2" t="b">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8533,81 +8533,81 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -14594,106 +14594,106 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>25</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
+      <c r="D273" t="n">
         <v>0</v>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>25</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
